--- a/Code/Results/Cases/Case_1_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.269416347902208</v>
+        <v>0.1423601482268282</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1211241058850874</v>
+        <v>0.1726500903206158</v>
       </c>
       <c r="E2">
-        <v>0.08844147175200234</v>
+        <v>0.1544409445399424</v>
       </c>
       <c r="F2">
-        <v>0.8147468170786425</v>
+        <v>1.493400524436439</v>
       </c>
       <c r="G2">
-        <v>0.0008060052562666441</v>
+        <v>0.002465178597842065</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08977064297690163</v>
+        <v>0.1777225435731253</v>
       </c>
       <c r="K2">
-        <v>1.643318667011954</v>
+        <v>0.5777082146119312</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4520293894323189</v>
+        <v>0.2712404879345058</v>
       </c>
       <c r="N2">
-        <v>0.8993690243183767</v>
+        <v>1.767832894244421</v>
       </c>
       <c r="O2">
-        <v>1.925285237888488</v>
+        <v>3.647913990833814</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2356895580581124</v>
+        <v>0.1329715801179958</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1098104049170843</v>
+        <v>0.1704119950685765</v>
       </c>
       <c r="E3">
-        <v>0.0826448961263857</v>
+        <v>0.1538308296408708</v>
       </c>
       <c r="F3">
-        <v>0.7772692659948959</v>
+        <v>1.494260510568978</v>
       </c>
       <c r="G3">
-        <v>0.0008099539956336003</v>
+        <v>0.00246784355435104</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08616099129594446</v>
+        <v>0.1779747742970024</v>
       </c>
       <c r="K3">
-        <v>1.429552232555722</v>
+        <v>0.5143002711891995</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3939761752978086</v>
+        <v>0.2556193327603751</v>
       </c>
       <c r="N3">
-        <v>0.9408682703030422</v>
+        <v>1.785784428892363</v>
       </c>
       <c r="O3">
-        <v>1.854578706225567</v>
+        <v>3.656710742456653</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.215120503630402</v>
+        <v>0.127276348784946</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1029539550219098</v>
+        <v>0.169103000173223</v>
       </c>
       <c r="E4">
-        <v>0.07919082385528498</v>
+        <v>0.1535225642610492</v>
       </c>
       <c r="F4">
-        <v>0.7556548246479196</v>
+        <v>1.495550975367934</v>
       </c>
       <c r="G4">
-        <v>0.0008124614058438682</v>
+        <v>0.002469568523068895</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08408543009073455</v>
+        <v>0.1782117021526659</v>
       </c>
       <c r="K4">
-        <v>1.298472647853941</v>
+        <v>0.4753771775224038</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3585105372217754</v>
+        <v>0.2461189481287249</v>
       </c>
       <c r="N4">
-        <v>0.9675084005648067</v>
+        <v>1.797403214017047</v>
       </c>
       <c r="O4">
-        <v>1.814841086467965</v>
+        <v>3.664046089926416</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.206770305560994</v>
+        <v>0.1249731139488688</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1001812152459109</v>
+        <v>0.1685860425347983</v>
       </c>
       <c r="E5">
-        <v>0.07780836297709826</v>
+        <v>0.1534136605488854</v>
       </c>
       <c r="F5">
-        <v>0.7471806214410179</v>
+        <v>1.496268683203184</v>
       </c>
       <c r="G5">
-        <v>0.000813504386316145</v>
+        <v>0.002470293826081594</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08327339515508214</v>
+        <v>0.1783289023560357</v>
       </c>
       <c r="K5">
-        <v>1.245081813490714</v>
+        <v>0.4595189801710546</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3440968210355777</v>
+        <v>0.2422705947563415</v>
       </c>
       <c r="N5">
-        <v>0.9786497774205127</v>
+        <v>1.802288006364915</v>
       </c>
       <c r="O5">
-        <v>1.799526582261592</v>
+        <v>3.667521733463019</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2053855954894601</v>
+        <v>0.1245917326544657</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09972205294495495</v>
+        <v>0.1685011988877534</v>
       </c>
       <c r="E6">
-        <v>0.07758028525202931</v>
+        <v>0.1533965878117485</v>
       </c>
       <c r="F6">
-        <v>0.7457931576118142</v>
+        <v>1.49639944764855</v>
       </c>
       <c r="G6">
-        <v>0.0008136788622894378</v>
+        <v>0.002470415614966987</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08314055108134966</v>
+        <v>0.178349611060078</v>
       </c>
       <c r="K6">
-        <v>1.236217304076717</v>
+        <v>0.4568859618524925</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3417056025905438</v>
+        <v>0.2416329824342043</v>
       </c>
       <c r="N6">
-        <v>0.9805168494489855</v>
+        <v>1.803108186331915</v>
       </c>
       <c r="O6">
-        <v>1.79703541356406</v>
+        <v>3.668128243106082</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.215007765043751</v>
+        <v>0.1272452149932946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1029164763169774</v>
+        <v>0.1690959615262315</v>
       </c>
       <c r="E7">
-        <v>0.07917207955969374</v>
+        <v>0.1535210278168684</v>
       </c>
       <c r="F7">
-        <v>0.75553920919603</v>
+        <v>1.49555987775279</v>
       </c>
       <c r="G7">
-        <v>0.0008124753855603588</v>
+        <v>0.002469578214127756</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08407434405126324</v>
+        <v>0.1782131991220837</v>
       </c>
       <c r="K7">
-        <v>1.297752522259486</v>
+        <v>0.4751632939151307</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3583159996518575</v>
+        <v>0.2460669539287537</v>
       </c>
       <c r="N7">
-        <v>0.9676575098977658</v>
+        <v>1.797468484441767</v>
       </c>
       <c r="O7">
-        <v>1.814631049683555</v>
+        <v>3.664090994028612</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2577564677052777</v>
+        <v>0.1391086675352255</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.117203573518708</v>
+        <v>0.1718649041167595</v>
       </c>
       <c r="E8">
-        <v>0.08642019769893494</v>
+        <v>0.1542168259027576</v>
       </c>
       <c r="F8">
-        <v>0.8015238678956251</v>
+        <v>1.493538869803032</v>
       </c>
       <c r="G8">
-        <v>0.000807349799502282</v>
+        <v>0.002466079110395297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08849581157021902</v>
+        <v>0.177792491138689</v>
       </c>
       <c r="K8">
-        <v>1.569564340202135</v>
+        <v>0.555843648427583</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4319715422189745</v>
+        <v>0.2658355456946211</v>
       </c>
       <c r="N8">
-        <v>0.9134334886092201</v>
+        <v>1.773898820792159</v>
       </c>
       <c r="O8">
-        <v>1.900114411936642</v>
+        <v>3.650545729134222</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3428461084379961</v>
+        <v>0.1629172146540441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1460026171579329</v>
+        <v>0.1778094095472937</v>
       </c>
       <c r="E9">
-        <v>0.1015303925638094</v>
+        <v>0.1561064895344408</v>
       </c>
       <c r="F9">
-        <v>0.9036172711511909</v>
+        <v>1.49562197067975</v>
       </c>
       <c r="G9">
-        <v>0.0007979392398118623</v>
+        <v>0.002459917948239054</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09836113825355852</v>
+        <v>0.1776180250091457</v>
       </c>
       <c r="K9">
-        <v>2.104884163240058</v>
+        <v>0.7141042124139858</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5781389446295506</v>
+        <v>0.3053162444351756</v>
       </c>
       <c r="N9">
-        <v>0.816592309718402</v>
+        <v>1.732408432586514</v>
       </c>
       <c r="O9">
-        <v>2.099098671920046</v>
+        <v>3.639329828638154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4063593222021069</v>
+        <v>0.1807347358249984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1677375407878685</v>
+        <v>0.1824874803157854</v>
       </c>
       <c r="E10">
-        <v>0.1132722568476581</v>
+        <v>0.1578136859921599</v>
       </c>
       <c r="F10">
-        <v>0.9871253326278264</v>
+        <v>1.500836636091151</v>
       </c>
       <c r="G10">
-        <v>0.0007913910886335972</v>
+        <v>0.00245581419378977</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1064527070428198</v>
+        <v>0.1778859461848228</v>
       </c>
       <c r="K10">
-        <v>2.500985294598564</v>
+        <v>0.8303779417543637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.687046081400716</v>
+        <v>0.334750635999761</v>
       </c>
       <c r="N10">
-        <v>0.7516535432543634</v>
+        <v>1.704803713151293</v>
       </c>
       <c r="O10">
-        <v>2.267632835358199</v>
+        <v>3.640450615427909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4355237690751466</v>
+        <v>0.1889097726549522</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1777740867626818</v>
+        <v>0.1846824933857505</v>
       </c>
       <c r="E11">
-        <v>0.118775231622628</v>
+        <v>0.1586593135970418</v>
       </c>
       <c r="F11">
-        <v>1.02725489610701</v>
+        <v>1.504008724631632</v>
       </c>
       <c r="G11">
-        <v>0.000788485775423284</v>
+        <v>0.002454038207542248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1103442600690485</v>
+        <v>0.1780937551819974</v>
       </c>
       <c r="K11">
-        <v>2.682128753920182</v>
+        <v>0.8832683963954082</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7370317374025248</v>
+        <v>0.3482325790223371</v>
       </c>
       <c r="N11">
-        <v>0.7235597536163034</v>
+        <v>1.692869544115929</v>
       </c>
       <c r="O11">
-        <v>2.349923463457628</v>
+        <v>3.642994770935417</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4466113191933374</v>
+        <v>0.1920153271915979</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1815981866570411</v>
+        <v>0.1855232482294582</v>
       </c>
       <c r="E12">
-        <v>0.1208842574757369</v>
+        <v>0.1589894267470449</v>
       </c>
       <c r="F12">
-        <v>1.042785069462397</v>
+        <v>1.505324875135017</v>
       </c>
       <c r="G12">
-        <v>0.0007873956677444538</v>
+        <v>0.002453378680975258</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.111850614595923</v>
+        <v>0.1781847922989215</v>
       </c>
       <c r="K12">
-        <v>2.750890192741139</v>
+        <v>0.9032954795119394</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7560335517806962</v>
+        <v>0.3533508904681284</v>
       </c>
       <c r="N12">
-        <v>0.7131385396014345</v>
+        <v>1.688439976948654</v>
       </c>
       <c r="O12">
-        <v>2.381962302274843</v>
+        <v>3.644250747531487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4442214029926532</v>
+        <v>0.1913460555344244</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1807735204967003</v>
+        <v>0.1853417530269752</v>
       </c>
       <c r="E13">
-        <v>0.1204288893394541</v>
+        <v>0.1589178915197067</v>
       </c>
       <c r="F13">
-        <v>1.039425080078772</v>
+        <v>1.505036307394079</v>
       </c>
       <c r="G13">
-        <v>0.000787630002214626</v>
+        <v>0.002453520144677902</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1115246992417767</v>
+        <v>0.1781646370045564</v>
       </c>
       <c r="K13">
-        <v>2.736073301836853</v>
+        <v>0.8989823654493989</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7519377490895138</v>
+        <v>0.3522479966738885</v>
       </c>
       <c r="N13">
-        <v>0.7153731175811728</v>
+        <v>1.68938997644365</v>
       </c>
       <c r="O13">
-        <v>2.375022009152417</v>
+        <v>3.643967238336046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.436435047836369</v>
+        <v>0.1891650722420763</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1780882151703054</v>
+        <v>0.1847514718006664</v>
       </c>
       <c r="E14">
-        <v>0.1189482264506658</v>
+        <v>0.158686274131</v>
       </c>
       <c r="F14">
-        <v>1.028525723492166</v>
+        <v>1.504114701808973</v>
       </c>
       <c r="G14">
-        <v>0.0007883958926965499</v>
+        <v>0.002453983687559226</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1104675188136994</v>
+        <v>0.1781009975313594</v>
       </c>
       <c r="K14">
-        <v>2.687782290756672</v>
+        <v>0.8849160697340608</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7385935009003077</v>
+        <v>0.3486534066360463</v>
       </c>
       <c r="N14">
-        <v>0.7226979844079722</v>
+        <v>1.692503324323305</v>
       </c>
       <c r="O14">
-        <v>2.352541328328641</v>
+        <v>3.643092237375896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4316714974164455</v>
+        <v>0.1878304336619721</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1764465079215825</v>
+        <v>0.1843911491311729</v>
       </c>
       <c r="E15">
-        <v>0.118044615195803</v>
+        <v>0.1585456891156767</v>
       </c>
       <c r="F15">
-        <v>1.021893851810688</v>
+        <v>1.503565159300948</v>
       </c>
       <c r="G15">
-        <v>0.0007888663191507992</v>
+        <v>0.002454269312236719</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1098242993531642</v>
+        <v>0.1780636237512851</v>
       </c>
       <c r="K15">
-        <v>2.658225214903183</v>
+        <v>0.8762998491260987</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7304296105518162</v>
+        <v>0.3464533009863331</v>
       </c>
       <c r="N15">
-        <v>0.7272132578606936</v>
+        <v>1.694422014267428</v>
       </c>
       <c r="O15">
-        <v>2.338887612118043</v>
+        <v>3.642594374865951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4044592082769185</v>
+        <v>0.1802018657913322</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1670848011780635</v>
+        <v>0.1823453716159804</v>
       </c>
       <c r="E16">
-        <v>0.1129160379412397</v>
+        <v>0.1577598082706153</v>
       </c>
       <c r="F16">
-        <v>0.9845480460916463</v>
+        <v>1.500645422338067</v>
       </c>
       <c r="G16">
-        <v>0.0007915823946418167</v>
+        <v>0.002455932081182736</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1062028265937798</v>
+        <v>0.177874093463366</v>
       </c>
       <c r="K16">
-        <v>2.489168789489128</v>
+        <v>0.8269212839546469</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6837891242302945</v>
+        <v>0.33387139102134</v>
       </c>
       <c r="N16">
-        <v>0.7535194319072644</v>
+        <v>1.70559618310887</v>
       </c>
       <c r="O16">
-        <v>2.262373854782908</v>
+        <v>3.640325286817216</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3878381265284361</v>
+        <v>0.1755397211630623</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1613813109397171</v>
+        <v>0.181107444313426</v>
       </c>
       <c r="E17">
-        <v>0.1098125357091639</v>
+        <v>0.1572953495615934</v>
       </c>
       <c r="F17">
-        <v>0.9622040181707661</v>
+        <v>1.499059080098888</v>
       </c>
       <c r="G17">
-        <v>0.0007932670956078385</v>
+        <v>0.002456975357161711</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1040367918965046</v>
+        <v>0.1777798228243412</v>
       </c>
       <c r="K17">
-        <v>2.38572269027128</v>
+        <v>0.796627679754522</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6552968251110016</v>
+        <v>0.3261762053441686</v>
       </c>
       <c r="N17">
-        <v>0.7700344330706024</v>
+        <v>1.712610833384208</v>
       </c>
       <c r="O17">
-        <v>2.216922695720569</v>
+        <v>3.639454329984687</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.378303434233473</v>
+        <v>0.1728647558710463</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1581147306924748</v>
+        <v>0.1804017259646855</v>
       </c>
       <c r="E18">
-        <v>0.108042564767505</v>
+        <v>0.1570347031658734</v>
       </c>
       <c r="F18">
-        <v>0.9495522106217607</v>
+        <v>1.498221954015449</v>
       </c>
       <c r="G18">
-        <v>0.0007942430381051431</v>
+        <v>0.002457583975140147</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1028106199922902</v>
+        <v>0.1777336897505037</v>
       </c>
       <c r="K18">
-        <v>2.326311257480057</v>
+        <v>0.7792033694684619</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6389499136203582</v>
+        <v>0.3217588210503877</v>
       </c>
       <c r="N18">
-        <v>0.7796690564505973</v>
+        <v>1.716704147388697</v>
       </c>
       <c r="O18">
-        <v>2.191305328907589</v>
+        <v>3.63914485517401</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3750793661818506</v>
+        <v>0.1719601938322342</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1570110535722335</v>
+        <v>0.1801638669543877</v>
       </c>
       <c r="E19">
-        <v>0.1074458162963907</v>
+        <v>0.1569475697817069</v>
       </c>
       <c r="F19">
-        <v>0.9453020923023985</v>
+        <v>1.497951452011662</v>
       </c>
       <c r="G19">
-        <v>0.0007945746831972807</v>
+        <v>0.002457791513602297</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1023987673530939</v>
+        <v>0.1777194595369096</v>
       </c>
       <c r="K19">
-        <v>2.306209839059278</v>
+        <v>0.7733037866576922</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6334219095057065</v>
+        <v>0.3202646695649989</v>
       </c>
       <c r="N19">
-        <v>0.7829541985993913</v>
+        <v>1.71810015014815</v>
       </c>
       <c r="O19">
-        <v>2.182719878986234</v>
+        <v>3.639072957702808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3896048173657078</v>
+        <v>0.1760353350656914</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1619870027092674</v>
+        <v>0.1812385718129264</v>
       </c>
       <c r="E20">
-        <v>0.1101413343140614</v>
+        <v>0.1573441197005714</v>
       </c>
       <c r="F20">
-        <v>0.9645617076850073</v>
+        <v>1.499220156637605</v>
       </c>
       <c r="G20">
-        <v>0.0007930870407852691</v>
+        <v>0.002456863413743624</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.104265316836532</v>
+        <v>0.1777890210125221</v>
       </c>
       <c r="K20">
-        <v>2.396725390765397</v>
+        <v>0.7998525163344254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6583255575438471</v>
+        <v>0.326994474153679</v>
       </c>
       <c r="N20">
-        <v>0.7682622809335733</v>
+        <v>1.711858039449719</v>
       </c>
       <c r="O20">
-        <v>2.221706239470137</v>
+        <v>3.639527227503834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4387208684412087</v>
+        <v>0.1898054141792471</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1788763004722256</v>
+        <v>0.1849245930846166</v>
       </c>
       <c r="E21">
-        <v>0.1193824338483154</v>
+        <v>0.1587540375528178</v>
       </c>
       <c r="F21">
-        <v>1.031717847717644</v>
+        <v>1.504382280628434</v>
       </c>
       <c r="G21">
-        <v>0.0007881706629131457</v>
+        <v>0.002453847181404625</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1107771305646423</v>
+        <v>0.1781193550631315</v>
       </c>
       <c r="K21">
-        <v>2.701961774179978</v>
+        <v>0.889047726859701</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7425109598071984</v>
+        <v>0.3497088742545031</v>
       </c>
       <c r="N21">
-        <v>0.7205405199656205</v>
+        <v>1.691586425618418</v>
       </c>
       <c r="O21">
-        <v>2.359120072728047</v>
+        <v>3.643341306133948</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4710775028002416</v>
+        <v>0.1988622576007515</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1900523177584432</v>
+        <v>0.187389257366334</v>
       </c>
       <c r="E22">
-        <v>0.1255697261642901</v>
+        <v>0.1597331455632833</v>
       </c>
       <c r="F22">
-        <v>1.077568409917617</v>
+        <v>1.508426004455842</v>
       </c>
       <c r="G22">
-        <v>0.0007850159769093219</v>
+        <v>0.00245195165211252</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.115224867891925</v>
+        <v>0.1784071941204957</v>
       </c>
       <c r="K22">
-        <v>2.902436121608616</v>
+        <v>0.9473334464460379</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7979634034743057</v>
+        <v>0.3646296601727883</v>
       </c>
       <c r="N22">
-        <v>0.6906228465147848</v>
+        <v>1.678860270711187</v>
       </c>
       <c r="O22">
-        <v>2.454076165657852</v>
+        <v>3.647539305031927</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4537831362327154</v>
+        <v>0.1940232682266156</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1840741465466635</v>
+        <v>0.1860687534355776</v>
       </c>
       <c r="E23">
-        <v>0.1222532615283605</v>
+        <v>0.1592053132326932</v>
       </c>
       <c r="F23">
-        <v>1.05290864551624</v>
+        <v>1.506206515403804</v>
       </c>
       <c r="G23">
-        <v>0.0007866945155159018</v>
+        <v>0.002452956420085647</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1128326261584576</v>
+        <v>0.1782469899437586</v>
       </c>
       <c r="K23">
-        <v>2.795338891113403</v>
+        <v>0.9162263517341103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7683244622319165</v>
+        <v>0.3566593201075747</v>
       </c>
       <c r="N23">
-        <v>0.7064709585852391</v>
+        <v>1.685604646089143</v>
       </c>
       <c r="O23">
-        <v>2.402901304565461</v>
+        <v>3.645142711169228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3888060313992554</v>
+        <v>0.1758112512995069</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1617131308875486</v>
+        <v>0.181179270430718</v>
       </c>
       <c r="E24">
-        <v>0.1099926401500255</v>
+        <v>0.1573220508546207</v>
       </c>
       <c r="F24">
-        <v>0.9634951937138396</v>
+        <v>1.49914710067101</v>
       </c>
       <c r="G24">
-        <v>0.0007931684205225626</v>
+        <v>0.002456913996065864</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.104161941367515</v>
+        <v>0.1777848373914068</v>
       </c>
       <c r="K24">
-        <v>2.391750881700091</v>
+        <v>0.7983945929190668</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6569561633880383</v>
+        <v>0.3266245139974586</v>
       </c>
       <c r="N24">
-        <v>0.7690630357548436</v>
+        <v>1.712198189137837</v>
       </c>
       <c r="O24">
-        <v>2.219542006238925</v>
+        <v>3.639493674799837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3196692443132463</v>
+        <v>0.1564187622222448</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1381180794909938</v>
+        <v>0.1761464886592989</v>
       </c>
       <c r="E25">
-        <v>0.09733735406972244</v>
+        <v>0.1555391948681049</v>
       </c>
       <c r="F25">
-        <v>0.874599730234408</v>
+        <v>1.494411322972084</v>
       </c>
       <c r="G25">
-        <v>0.0008004189345264225</v>
+        <v>0.002461510144612586</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09555293947106946</v>
+        <v>0.1775956281264968</v>
       </c>
       <c r="K25">
-        <v>1.959681355349915</v>
+        <v>0.6712885173101597</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.538365682039867</v>
+        <v>0.2945599664045488</v>
       </c>
       <c r="N25">
-        <v>0.8417320464425728</v>
+        <v>1.743126875084027</v>
       </c>
       <c r="O25">
-        <v>2.041591169935145</v>
+        <v>3.64072052343235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423601482268282</v>
+        <v>0.269416347902208</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1726500903206158</v>
+        <v>0.1211241058849737</v>
       </c>
       <c r="E2">
-        <v>0.1544409445399424</v>
+        <v>0.08844147175201655</v>
       </c>
       <c r="F2">
-        <v>1.493400524436439</v>
+        <v>0.8147468170786425</v>
       </c>
       <c r="G2">
-        <v>0.002465178597842065</v>
+        <v>0.0008060052562671408</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1777225435731253</v>
+        <v>0.08977064297701531</v>
       </c>
       <c r="K2">
-        <v>0.5777082146119312</v>
+        <v>1.643318667011926</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2712404879345058</v>
+        <v>0.4520293894323402</v>
       </c>
       <c r="N2">
-        <v>1.767832894244421</v>
+        <v>0.8993690243183767</v>
       </c>
       <c r="O2">
-        <v>3.647913990833814</v>
+        <v>1.925285237888488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329715801179958</v>
+        <v>0.2356895580579703</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1704119950685765</v>
+        <v>0.1098104049170914</v>
       </c>
       <c r="E3">
-        <v>0.1538308296408708</v>
+        <v>0.0826448961263857</v>
       </c>
       <c r="F3">
-        <v>1.494260510568978</v>
+        <v>0.7772692659948959</v>
       </c>
       <c r="G3">
-        <v>0.00246784355435104</v>
+        <v>0.0008099539956343735</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1779747742970024</v>
+        <v>0.08616099129598354</v>
       </c>
       <c r="K3">
-        <v>0.5143002711891995</v>
+        <v>1.429552232555693</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2556193327603751</v>
+        <v>0.3939761752978086</v>
       </c>
       <c r="N3">
-        <v>1.785784428892363</v>
+        <v>0.9408682703030475</v>
       </c>
       <c r="O3">
-        <v>3.656710742456653</v>
+        <v>1.85457870622551</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127276348784946</v>
+        <v>0.2151205036305441</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.169103000173223</v>
+        <v>0.1029539550216256</v>
       </c>
       <c r="E4">
-        <v>0.1535225642610492</v>
+        <v>0.07919082385530274</v>
       </c>
       <c r="F4">
-        <v>1.495550975367934</v>
+        <v>0.7556548246479053</v>
       </c>
       <c r="G4">
-        <v>0.002469568523068895</v>
+        <v>0.000812461405740547</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1782117021526659</v>
+        <v>0.08408543009076652</v>
       </c>
       <c r="K4">
-        <v>0.4753771775224038</v>
+        <v>1.298472647853856</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2461189481287249</v>
+        <v>0.3585105372217754</v>
       </c>
       <c r="N4">
-        <v>1.797403214017047</v>
+        <v>0.9675084005647374</v>
       </c>
       <c r="O4">
-        <v>3.664046089926416</v>
+        <v>1.814841086467936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249731139488688</v>
+        <v>0.2067703055611076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1685860425347983</v>
+        <v>0.1001812152460033</v>
       </c>
       <c r="E5">
-        <v>0.1534136605488854</v>
+        <v>0.07780836297710181</v>
       </c>
       <c r="F5">
-        <v>1.496268683203184</v>
+        <v>0.7471806214410179</v>
       </c>
       <c r="G5">
-        <v>0.002470293826081594</v>
+        <v>0.000813504386353662</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1783289023560357</v>
+        <v>0.08327339515502885</v>
       </c>
       <c r="K5">
-        <v>0.4595189801710546</v>
+        <v>1.245081813490742</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2422705947563415</v>
+        <v>0.3440968210355777</v>
       </c>
       <c r="N5">
-        <v>1.802288006364915</v>
+        <v>0.9786497774205145</v>
       </c>
       <c r="O5">
-        <v>3.667521733463019</v>
+        <v>1.799526582261592</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245917326544657</v>
+        <v>0.2053855954894601</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1685011988877534</v>
+        <v>0.09972205294508285</v>
       </c>
       <c r="E6">
-        <v>0.1533965878117485</v>
+        <v>0.07758028525200444</v>
       </c>
       <c r="F6">
-        <v>1.49639944764855</v>
+        <v>0.7457931576118213</v>
       </c>
       <c r="G6">
-        <v>0.002470415614966987</v>
+        <v>0.0008136788622904456</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.178349611060078</v>
+        <v>0.08314055108136031</v>
       </c>
       <c r="K6">
-        <v>0.4568859618524925</v>
+        <v>1.236217304076916</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2416329824342043</v>
+        <v>0.3417056025905651</v>
       </c>
       <c r="N6">
-        <v>1.803108186331915</v>
+        <v>0.9805168494490477</v>
       </c>
       <c r="O6">
-        <v>3.668128243106082</v>
+        <v>1.797035413564117</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272452149932946</v>
+        <v>0.2150077650437368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1690959615262315</v>
+        <v>0.1029164763168211</v>
       </c>
       <c r="E7">
-        <v>0.1535210278168684</v>
+        <v>0.07917207955969374</v>
       </c>
       <c r="F7">
-        <v>1.49555987775279</v>
+        <v>0.75553920919603</v>
       </c>
       <c r="G7">
-        <v>0.002469578214127756</v>
+        <v>0.000812475385538084</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1782131991220837</v>
+        <v>0.08407434405123126</v>
       </c>
       <c r="K7">
-        <v>0.4751632939151307</v>
+        <v>1.297752522259572</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2460669539287537</v>
+        <v>0.3583159996518646</v>
       </c>
       <c r="N7">
-        <v>1.797468484441767</v>
+        <v>0.9676575098978226</v>
       </c>
       <c r="O7">
-        <v>3.664090994028612</v>
+        <v>1.814631049683555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391086675352255</v>
+        <v>0.2577564677050503</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1718649041167595</v>
+        <v>0.1172035735186654</v>
       </c>
       <c r="E8">
-        <v>0.1542168259027576</v>
+        <v>0.08642019769896692</v>
       </c>
       <c r="F8">
-        <v>1.493538869803032</v>
+        <v>0.801523867895618</v>
       </c>
       <c r="G8">
-        <v>0.002466079110395297</v>
+        <v>0.000807349799556103</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.177792491138689</v>
+        <v>0.08849581157031139</v>
       </c>
       <c r="K8">
-        <v>0.555843648427583</v>
+        <v>1.569564340202135</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2658355456946211</v>
+        <v>0.4319715422189674</v>
       </c>
       <c r="N8">
-        <v>1.773898820792159</v>
+        <v>0.9134334886091526</v>
       </c>
       <c r="O8">
-        <v>3.650545729134222</v>
+        <v>1.900114411936613</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1629172146540441</v>
+        <v>0.3428461084379961</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1778094095472937</v>
+        <v>0.1460026171579898</v>
       </c>
       <c r="E9">
-        <v>0.1561064895344408</v>
+        <v>0.1015303925638307</v>
       </c>
       <c r="F9">
-        <v>1.49562197067975</v>
+        <v>0.9036172711511483</v>
       </c>
       <c r="G9">
-        <v>0.002459917948239054</v>
+        <v>0.0007979392398129413</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1776180250091457</v>
+        <v>0.09836113825345194</v>
       </c>
       <c r="K9">
-        <v>0.7141042124139858</v>
+        <v>2.104884163239973</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3053162444351756</v>
+        <v>0.5781389446295861</v>
       </c>
       <c r="N9">
-        <v>1.732408432586514</v>
+        <v>0.8165923097183878</v>
       </c>
       <c r="O9">
-        <v>3.639329828638154</v>
+        <v>2.099098671920046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1807347358249984</v>
+        <v>0.4063593222019648</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1824874803157854</v>
+        <v>0.1677375407879396</v>
       </c>
       <c r="E10">
-        <v>0.1578136859921599</v>
+        <v>0.1132722568476794</v>
       </c>
       <c r="F10">
-        <v>1.500836636091151</v>
+        <v>0.9871253326278122</v>
       </c>
       <c r="G10">
-        <v>0.00245581419378977</v>
+        <v>0.0007913910886624054</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1778859461848228</v>
+        <v>0.1064527070428198</v>
       </c>
       <c r="K10">
-        <v>0.8303779417543637</v>
+        <v>2.500985294598564</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.334750635999761</v>
+        <v>0.687046081400716</v>
       </c>
       <c r="N10">
-        <v>1.704803713151293</v>
+        <v>0.751653543254406</v>
       </c>
       <c r="O10">
-        <v>3.640450615427909</v>
+        <v>2.267632835358171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1889097726549522</v>
+        <v>0.4355237690752887</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1846824933857505</v>
+        <v>0.1777740867627102</v>
       </c>
       <c r="E11">
-        <v>0.1586593135970418</v>
+        <v>0.1187752316226316</v>
       </c>
       <c r="F11">
-        <v>1.504008724631632</v>
+        <v>1.02725489610701</v>
       </c>
       <c r="G11">
-        <v>0.002454038207542248</v>
+        <v>0.0007884857754234034</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1780937551819974</v>
+        <v>0.1103442600689704</v>
       </c>
       <c r="K11">
-        <v>0.8832683963954082</v>
+        <v>2.682128753920153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3482325790223371</v>
+        <v>0.7370317374025106</v>
       </c>
       <c r="N11">
-        <v>1.692869544115929</v>
+        <v>0.7235597536162999</v>
       </c>
       <c r="O11">
-        <v>3.642994770935417</v>
+        <v>2.349923463457628</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1920153271915979</v>
+        <v>0.4466113191933374</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1855232482294582</v>
+        <v>0.1815981866571548</v>
       </c>
       <c r="E12">
-        <v>0.1589894267470449</v>
+        <v>0.1208842574757405</v>
       </c>
       <c r="F12">
-        <v>1.505324875135017</v>
+        <v>1.042785069462411</v>
       </c>
       <c r="G12">
-        <v>0.002453378680975258</v>
+        <v>0.0007873956677159144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1781847922989215</v>
+        <v>0.1118506145958875</v>
       </c>
       <c r="K12">
-        <v>0.9032954795119394</v>
+        <v>2.750890192741224</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3533508904681284</v>
+        <v>0.7560335517807033</v>
       </c>
       <c r="N12">
-        <v>1.688439976948654</v>
+        <v>0.7131385396014913</v>
       </c>
       <c r="O12">
-        <v>3.644250747531487</v>
+        <v>2.381962302274843</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1913460555344244</v>
+        <v>0.4442214029926532</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1853417530269752</v>
+        <v>0.1807735204967571</v>
       </c>
       <c r="E13">
-        <v>0.1589178915197067</v>
+        <v>0.1204288893394576</v>
       </c>
       <c r="F13">
-        <v>1.505036307394079</v>
+        <v>1.039425080078757</v>
       </c>
       <c r="G13">
-        <v>0.002453520144677902</v>
+        <v>0.0007876300022149697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1781646370045564</v>
+        <v>0.1115246992417696</v>
       </c>
       <c r="K13">
-        <v>0.8989823654493989</v>
+        <v>2.736073301836996</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3522479966738885</v>
+        <v>0.751937749089528</v>
       </c>
       <c r="N13">
-        <v>1.68938997644365</v>
+        <v>0.7153731175811586</v>
       </c>
       <c r="O13">
-        <v>3.643967238336046</v>
+        <v>2.375022009152474</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1891650722420763</v>
+        <v>0.4364350478363832</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1847514718006664</v>
+        <v>0.1780882151703196</v>
       </c>
       <c r="E14">
-        <v>0.158686274131</v>
+        <v>0.118948226450641</v>
       </c>
       <c r="F14">
-        <v>1.504114701808973</v>
+        <v>1.028525723492137</v>
       </c>
       <c r="G14">
-        <v>0.002453983687559226</v>
+        <v>0.0007883958926965815</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1781009975313594</v>
+        <v>0.1104675188137989</v>
       </c>
       <c r="K14">
-        <v>0.8849160697340608</v>
+        <v>2.687782290756701</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3486534066360463</v>
+        <v>0.7385935009003006</v>
       </c>
       <c r="N14">
-        <v>1.692503324323305</v>
+        <v>0.7226979844079686</v>
       </c>
       <c r="O14">
-        <v>3.643092237375896</v>
+        <v>2.352541328328584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1878304336619721</v>
+        <v>0.4316714974164313</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1843911491311729</v>
+        <v>0.176446507921554</v>
       </c>
       <c r="E15">
-        <v>0.1585456891156767</v>
+        <v>0.1180446151958066</v>
       </c>
       <c r="F15">
-        <v>1.503565159300948</v>
+        <v>1.021893851810688</v>
       </c>
       <c r="G15">
-        <v>0.002454269312236719</v>
+        <v>0.0007888663190937675</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1780636237512851</v>
+        <v>0.1098242993531784</v>
       </c>
       <c r="K15">
-        <v>0.8762998491260987</v>
+        <v>2.658225214903325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3464533009863331</v>
+        <v>0.7304296105518233</v>
       </c>
       <c r="N15">
-        <v>1.694422014267428</v>
+        <v>0.72721325786069</v>
       </c>
       <c r="O15">
-        <v>3.642594374865951</v>
+        <v>2.3388876121181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1802018657913322</v>
+        <v>0.404459208276748</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1823453716159804</v>
+        <v>0.1670848011781487</v>
       </c>
       <c r="E16">
-        <v>0.1577598082706153</v>
+        <v>0.1129160379412468</v>
       </c>
       <c r="F16">
-        <v>1.500645422338067</v>
+        <v>0.9845480460916463</v>
       </c>
       <c r="G16">
-        <v>0.002455932081182736</v>
+        <v>0.000791582394642344</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.177874093463366</v>
+        <v>0.1062028265937869</v>
       </c>
       <c r="K16">
-        <v>0.8269212839546469</v>
+        <v>2.489168789489156</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.33387139102134</v>
+        <v>0.6837891242302945</v>
       </c>
       <c r="N16">
-        <v>1.70559618310887</v>
+        <v>0.7535194319072573</v>
       </c>
       <c r="O16">
-        <v>3.640325286817216</v>
+        <v>2.262373854782908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1755397211630623</v>
+        <v>0.3878381265286492</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.181107444313426</v>
+        <v>0.1613813109395466</v>
       </c>
       <c r="E17">
-        <v>0.1572953495615934</v>
+        <v>0.1098125357091391</v>
       </c>
       <c r="F17">
-        <v>1.499059080098888</v>
+        <v>0.9622040181707519</v>
       </c>
       <c r="G17">
-        <v>0.002456975357161711</v>
+        <v>0.0007932670955788857</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1777798228243412</v>
+        <v>0.1040367918965472</v>
       </c>
       <c r="K17">
-        <v>0.796627679754522</v>
+        <v>2.385722690271393</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3261762053441686</v>
+        <v>0.6552968251110087</v>
       </c>
       <c r="N17">
-        <v>1.712610833384208</v>
+        <v>0.770034433070613</v>
       </c>
       <c r="O17">
-        <v>3.639454329984687</v>
+        <v>2.216922695720655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1728647558710463</v>
+        <v>0.3783034342337146</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1804017259646855</v>
+        <v>0.1581147306925459</v>
       </c>
       <c r="E18">
-        <v>0.1570347031658734</v>
+        <v>0.1080425647675121</v>
       </c>
       <c r="F18">
-        <v>1.498221954015449</v>
+        <v>0.9495522106217607</v>
       </c>
       <c r="G18">
-        <v>0.002457583975140147</v>
+        <v>0.0007942430380765526</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1777336897505037</v>
+        <v>0.1028106199922973</v>
       </c>
       <c r="K18">
-        <v>0.7792033694684619</v>
+        <v>2.326311257479915</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3217588210503877</v>
+        <v>0.6389499136203582</v>
       </c>
       <c r="N18">
-        <v>1.716704147388697</v>
+        <v>0.7796690564505404</v>
       </c>
       <c r="O18">
-        <v>3.63914485517401</v>
+        <v>2.191305328907532</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1719601938322342</v>
+        <v>0.3750793661819927</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1801638669543877</v>
+        <v>0.1570110535722904</v>
       </c>
       <c r="E19">
-        <v>0.1569475697817069</v>
+        <v>0.1074458162964156</v>
       </c>
       <c r="F19">
-        <v>1.497951452011662</v>
+        <v>0.9453020923024127</v>
       </c>
       <c r="G19">
-        <v>0.002457791513602297</v>
+        <v>0.0007945746831688191</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1777194595369096</v>
+        <v>0.1023987673529803</v>
       </c>
       <c r="K19">
-        <v>0.7733037866576922</v>
+        <v>2.30620983905925</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3202646695649989</v>
+        <v>0.6334219095056994</v>
       </c>
       <c r="N19">
-        <v>1.71810015014815</v>
+        <v>0.78295419859937</v>
       </c>
       <c r="O19">
-        <v>3.639072957702808</v>
+        <v>2.182719878986148</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1760353350656914</v>
+        <v>0.3896048173657363</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1812385718129264</v>
+        <v>0.1619870027091395</v>
       </c>
       <c r="E20">
-        <v>0.1573441197005714</v>
+        <v>0.1101413343140365</v>
       </c>
       <c r="F20">
-        <v>1.499220156637605</v>
+        <v>0.9645617076850073</v>
       </c>
       <c r="G20">
-        <v>0.002456863413743624</v>
+        <v>0.0007930870408146243</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1777890210125221</v>
+        <v>0.104265316836532</v>
       </c>
       <c r="K20">
-        <v>0.7998525163344254</v>
+        <v>2.396725390765482</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.326994474153679</v>
+        <v>0.6583255575438471</v>
       </c>
       <c r="N20">
-        <v>1.711858039449719</v>
+        <v>0.7682622809335058</v>
       </c>
       <c r="O20">
-        <v>3.639527227503834</v>
+        <v>2.221706239470166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1898054141792471</v>
+        <v>0.4387208684412087</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1849245930846166</v>
+        <v>0.1788763004723961</v>
       </c>
       <c r="E21">
-        <v>0.1587540375528178</v>
+        <v>0.1193824338483154</v>
       </c>
       <c r="F21">
-        <v>1.504382280628434</v>
+        <v>1.031717847717658</v>
       </c>
       <c r="G21">
-        <v>0.002453847181404625</v>
+        <v>0.0007881706628554972</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1781193550631315</v>
+        <v>0.1107771305646494</v>
       </c>
       <c r="K21">
-        <v>0.889047726859701</v>
+        <v>2.701961774180006</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3497088742545031</v>
+        <v>0.7425109598072055</v>
       </c>
       <c r="N21">
-        <v>1.691586425618418</v>
+        <v>0.7205405199656774</v>
       </c>
       <c r="O21">
-        <v>3.643341306133948</v>
+        <v>2.359120072728018</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1988622576007515</v>
+        <v>0.4710775028002416</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.187389257366334</v>
+        <v>0.1900523177585569</v>
       </c>
       <c r="E22">
-        <v>0.1597331455632833</v>
+        <v>0.1255697261642723</v>
       </c>
       <c r="F22">
-        <v>1.508426004455842</v>
+        <v>1.077568409917617</v>
       </c>
       <c r="G22">
-        <v>0.00245195165211252</v>
+        <v>0.0007850159769094926</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1784071941204957</v>
+        <v>0.1152248678919321</v>
       </c>
       <c r="K22">
-        <v>0.9473334464460379</v>
+        <v>2.902436121608616</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3646296601727883</v>
+        <v>0.7979634034742986</v>
       </c>
       <c r="N22">
-        <v>1.678860270711187</v>
+        <v>0.6906228465148452</v>
       </c>
       <c r="O22">
-        <v>3.647539305031927</v>
+        <v>2.454076165657796</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1940232682266156</v>
+        <v>0.4537831362327296</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1860687534355776</v>
+        <v>0.1840741465465783</v>
       </c>
       <c r="E23">
-        <v>0.1592053132326932</v>
+        <v>0.122253261528364</v>
       </c>
       <c r="F23">
-        <v>1.506206515403804</v>
+        <v>1.052908645516226</v>
       </c>
       <c r="G23">
-        <v>0.002452956420085647</v>
+        <v>0.0007866945155173446</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1782469899437586</v>
+        <v>0.1128326261584078</v>
       </c>
       <c r="K23">
-        <v>0.9162263517341103</v>
+        <v>2.795338891113545</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3566593201075747</v>
+        <v>0.7683244622319094</v>
       </c>
       <c r="N23">
-        <v>1.685604646089143</v>
+        <v>0.7064709585852462</v>
       </c>
       <c r="O23">
-        <v>3.645142711169228</v>
+        <v>2.402901304565489</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1758112512995069</v>
+        <v>0.3888060313990138</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.181179270430718</v>
+        <v>0.1617131308875912</v>
       </c>
       <c r="E24">
-        <v>0.1573220508546207</v>
+        <v>0.1099926401500291</v>
       </c>
       <c r="F24">
-        <v>1.49914710067101</v>
+        <v>0.9634951937138396</v>
       </c>
       <c r="G24">
-        <v>0.002456913996065864</v>
+        <v>0.0007931684205240059</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1777848373914068</v>
+        <v>0.1041619413676074</v>
       </c>
       <c r="K24">
-        <v>0.7983945929190668</v>
+        <v>2.391750881700204</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3266245139974586</v>
+        <v>0.6569561633880241</v>
       </c>
       <c r="N24">
-        <v>1.712198189137837</v>
+        <v>0.7690630357548329</v>
       </c>
       <c r="O24">
-        <v>3.639493674799837</v>
+        <v>2.219542006238868</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1564187622222448</v>
+        <v>0.3196692443131184</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1761464886592989</v>
+        <v>0.1381180794909511</v>
       </c>
       <c r="E25">
-        <v>0.1555391948681049</v>
+        <v>0.09733735406969046</v>
       </c>
       <c r="F25">
-        <v>1.494411322972084</v>
+        <v>0.874599730234408</v>
       </c>
       <c r="G25">
-        <v>0.002461510144612586</v>
+        <v>0.0008004189345273013</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1775956281264968</v>
+        <v>0.09555293947102683</v>
       </c>
       <c r="K25">
-        <v>0.6712885173101597</v>
+        <v>1.959681355349915</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2945599664045488</v>
+        <v>0.5383656820398599</v>
       </c>
       <c r="N25">
-        <v>1.743126875084027</v>
+        <v>0.8417320464426261</v>
       </c>
       <c r="O25">
-        <v>3.64072052343235</v>
+        <v>2.041591169935145</v>
       </c>
     </row>
   </sheetData>
